--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1589.635913150336</v>
+        <v>1301.470284478263</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.99883577838754</v>
+        <v>54.35977435055383</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.15155734536833</v>
+        <v>22.02178934711761</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.6086347173128</v>
+        <v>3.132299474826761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1340.120000000004</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32.93504247831763</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.72550364349533</v>
+        <v>22.97821065288239</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.23132818193991</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.11932185785321</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>45</v>
+        <v>41.61690297149432</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,155 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000012</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -1389,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -1400,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000012</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1411,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6100000000012</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -1422,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0800000000012</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12">
@@ -1433,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1444,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1455,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1466,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1477,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -1488,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>233.2100000000005</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -1499,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>224.2650000000005</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -1510,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>215.9700000000005</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>227.2600000000005</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -1532,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>230.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1543,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1554,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1565,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1576,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1587,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1598,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>151.0650000000013</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1609,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>143.15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1620,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>141.6400000000013</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1631,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>144.1900000000013</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1642,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>145.6100000000013</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1653,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>106.1700000000004</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
@@ -1664,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
@@ -1675,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>102.57</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
@@ -1686,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>110.05</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
@@ -1697,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>107.6750000000004</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37">
@@ -1708,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>233.2100000000005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1719,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>224.2650000000005</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1730,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>215.9700000000005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1741,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>227.2600000000005</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1752,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>230.4</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.170000000000002</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1810,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -1821,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1832,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.05</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1843,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.675000000000011</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -1854,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>133.2100000000005</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1865,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2650000000005</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1876,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.9700000000005</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1887,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2600000000005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1898,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>130.4</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2305,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2316,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2327,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2338,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2349,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2360,7 +2220,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2371,7 +2231,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2382,7 +2242,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2393,7 +2253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2404,122 +2264,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
